--- a/CodeBaseRoulanteOTA/Coeff_Asservissement.xlsx
+++ b/CodeBaseRoulanteOTA/Coeff_Asservissement.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\CoupeDeFranceDeRobotique\CodeBaseRoulanteOTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkat\Documents\PlatformIO\Projects\Enfin\CRAC-TEAM-PERSONNAL\CodeBaseRoulanteOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D46CD-297E-48AB-BCB7-8C0CEEC66308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35729FE-4C08-46ED-ADBC-D16001E2517F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Coefficient  tick roue folle</t>
   </si>
@@ -55,6 +66,21 @@
   </si>
   <si>
     <t>Perfect</t>
+  </si>
+  <si>
+    <t>Coeff roue vitesse</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 </t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
 </sst>
 </file>
@@ -378,14 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -484,6 +511,49 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
